--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-25T01:43:32+00:00</t>
+    <t>2021-09-26T03:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>4</t>
+    <t>6</t>
   </si>
   <si>
     <t>Level</t>
@@ -138,28 +138,37 @@
     <t>arv</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>treatment given</t>
+    <t>Currently on ART</t>
   </si>
   <si>
     <t>death</t>
   </si>
   <si>
-    <t>Patient death</t>
+    <t>Death</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>Patient drop out</t>
+    <t>Drop out/Loss-to-follow-up</t>
   </si>
   <si>
     <t>transfer</t>
   </si>
   <si>
-    <t>Transfer</t>
+    <t>Transferred out</t>
+  </si>
+  <si>
+    <t>never-art</t>
+  </si>
+  <si>
+    <t>Never on ART</t>
+  </si>
+  <si>
+    <t>unknow</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -468,7 +477,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,51 +507,67 @@
       <c r="C2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D4" t="s" s="2">
-        <v>46</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>48</v>
       </c>
+      <c r="C6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T03:05:54+00:00</t>
+    <t>2021-09-26T04:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T04:27:45+00:00</t>
+    <t>2021-09-30T09:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-30T09:59:38+00:00</t>
+    <t>2021-10-06T13:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:35:19+00:00</t>
+    <t>2021-10-06T13:42:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:42:37+00:00</t>
+    <t>2021-10-29T12:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:02:00+00:00</t>
+    <t>2021-10-29T12:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:05:23+00:00</t>
+    <t>2021-10-29T13:08:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:08:24+00:00</t>
+    <t>2021-10-29T13:58:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:58:33+00:00</t>
+    <t>2022-01-16T18:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:45:36+00:00</t>
+    <t>2022-01-16T18:50:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:50:07+00:00</t>
+    <t>2022-01-16T18:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:51:47+00:00</t>
+    <t>2022-01-16T19:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T19:00:02+00:00</t>
+    <t>2022-01-16T19:22:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T19:22:42+00:00</t>
+    <t>2022-02-25T20:09:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:09:43+00:00</t>
+    <t>2022-02-25T20:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:11:49+00:00</t>
+    <t>2022-02-25T20:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:13:21+00:00</t>
+    <t>2022-02-25T20:43:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:43:03+00:00</t>
+    <t>2022-02-25T20:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:52:14+00:00</t>
+    <t>2022-02-25T20:59:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:59:17+00:00</t>
+    <t>2022-02-25T21:00:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:00:17+00:00</t>
+    <t>2022-02-25T21:34:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:34:18+00:00</t>
+    <t>2022-02-25T21:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:36:43+00:00</t>
+    <t>2022-03-02T07:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T07:06:01+00:00</t>
+    <t>2022-03-02T18:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T18:06:48+00:00</t>
+    <t>2022-03-04T08:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:28:51+00:00</t>
+    <t>2022-03-04T08:37:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:37:21+00:00</t>
+    <t>2022-03-08T06:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-08T06:55:36+00:00</t>
+    <t>2022-03-16T09:10:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:10:28+00:00</t>
+    <t>2022-03-23T08:06:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T08:06:35+00:00</t>
+    <t>2022-03-25T09:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-arv-status.xlsx
+++ b/CodeSystem-cs-arv-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T09:06:52+00:00</t>
+    <t>2022-03-29T15:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
